--- a/techniqo/data_new_ticker/SBILIFE.xlsx
+++ b/techniqo/data_new_ticker/SBILIFE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G731"/>
+  <dimension ref="A1:G733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25971,6 +25971,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>861.3</v>
+      </c>
+      <c r="C732" t="n">
+        <v>871</v>
+      </c>
+      <c r="D732" t="n">
+        <v>853.05</v>
+      </c>
+      <c r="E732" t="n">
+        <v>864.7</v>
+      </c>
+      <c r="F732" t="n">
+        <v>725017</v>
+      </c>
+      <c r="G732" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>865</v>
+      </c>
+      <c r="C733" t="n">
+        <v>873.5</v>
+      </c>
+      <c r="D733" t="n">
+        <v>861.3</v>
+      </c>
+      <c r="E733" t="n">
+        <v>867.65</v>
+      </c>
+      <c r="F733" t="n">
+        <v>823952</v>
+      </c>
+      <c r="G733" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/SBILIFE.xlsx
+++ b/techniqo/data_new_ticker/SBILIFE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G733"/>
+  <dimension ref="A1:G735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26021,6 +26021,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>858.4</v>
+      </c>
+      <c r="C734" t="n">
+        <v>866.4</v>
+      </c>
+      <c r="D734" t="n">
+        <v>852.55</v>
+      </c>
+      <c r="E734" t="n">
+        <v>856.15</v>
+      </c>
+      <c r="F734" t="n">
+        <v>612366</v>
+      </c>
+      <c r="G734" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>856.95</v>
+      </c>
+      <c r="C735" t="n">
+        <v>861.8</v>
+      </c>
+      <c r="D735" t="n">
+        <v>845.05</v>
+      </c>
+      <c r="E735" t="n">
+        <v>848.1</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1245818</v>
+      </c>
+      <c r="G735" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
